--- a/biology/Médecine/Haemophilus_aegyptius/Haemophilus_aegyptius.xlsx
+++ b/biology/Médecine/Haemophilus_aegyptius/Haemophilus_aegyptius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Haemophilus aegyptius (Hae) est une espèce de bactérie du genre Haemophilus, dont les rapports avec Haemophilus influenza sont discutés, soit espèce voisine, soit hybridation Haemophilus influenza biogroupe aegytius[1].
-Également appelée bacille de Weeks[2], ou de Koch-Weeks, elle a été découverte en 1886 par John Elmer Weeks (1853-1949), médecin américain diplômé de l'Université du Michigan ayant fait un voyage d'études à l'Université de Berlin[3].
-Haemophilus aegyptius est un agent de conjonctivite bactérienne humaine[4], et depuis les années 1980 de la fièvre purpurique brésilienne[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haemophilus aegyptius (Hae) est une espèce de bactérie du genre Haemophilus, dont les rapports avec Haemophilus influenza sont discutés, soit espèce voisine, soit hybridation Haemophilus influenza biogroupe aegytius.
+Également appelée bacille de Weeks, ou de Koch-Weeks, elle a été découverte en 1886 par John Elmer Weeks (1853-1949), médecin américain diplômé de l'Université du Michigan ayant fait un voyage d'études à l'Université de Berlin.
+Haemophilus aegyptius est un agent de conjonctivite bactérienne humaine, et depuis les années 1980 de la fièvre purpurique brésilienne.
 </t>
         </is>
       </c>
